--- a/example/elaborati.xlsx
+++ b/example/elaborati.xlsx
@@ -19,130 +19,130 @@
     <t>Foglio14-0</t>
   </si>
   <si>
+    <t>Foglio3-0</t>
+  </si>
+  <si>
+    <t>Foglio4-0</t>
+  </si>
+  <si>
+    <t>Foglio8-0</t>
+  </si>
+  <si>
+    <t>Foglio9-0</t>
+  </si>
+  <si>
+    <t>Foglio6-0</t>
+  </si>
+  <si>
     <t>Foglio13-0</t>
   </si>
   <si>
-    <t>Foglio3-0</t>
-  </si>
-  <si>
-    <t>Foglio4-0</t>
-  </si>
-  <si>
-    <t>Foglio6-0</t>
+    <t>Foglio10-0</t>
+  </si>
+  <si>
+    <t>Foglio7-0</t>
   </si>
   <si>
     <t>Foglio12-0</t>
   </si>
   <si>
-    <t>Foglio10-0</t>
-  </si>
-  <si>
-    <t>Foglio7-0</t>
-  </si>
-  <si>
-    <t>Foglio9-0</t>
-  </si>
-  <si>
     <t>Foglio11-0</t>
   </si>
   <si>
-    <t>Foglio8-0</t>
+    <t>Foglio2-0</t>
   </si>
   <si>
     <t>Foglio2-1</t>
   </si>
   <si>
-    <t>Foglio2-0</t>
-  </si>
-  <si>
-    <t>DBBBBDDBCBBA</t>
-  </si>
-  <si>
-    <t>CCACCACAACBC</t>
-  </si>
-  <si>
-    <t>AABDDDAABCAC</t>
-  </si>
-  <si>
-    <t>ADBDCABADACC</t>
-  </si>
-  <si>
-    <t>DAACAABAACDB</t>
-  </si>
-  <si>
-    <t>AADCABCAACBD</t>
-  </si>
-  <si>
-    <t>DDCAABDAADAC</t>
-  </si>
-  <si>
-    <t>DDCBAAAABBAB</t>
-  </si>
-  <si>
-    <t>CBADDCCCCABA</t>
-  </si>
-  <si>
-    <t>BABDCDDBACDA</t>
-  </si>
-  <si>
-    <t>DADDABDCBBCA</t>
-  </si>
-  <si>
-    <t>CBAABBBBDBBD</t>
-  </si>
-  <si>
-    <t>CCDCDBACDADC</t>
-  </si>
-  <si>
-    <t>BBCBACCABBDA</t>
-  </si>
-  <si>
-    <t>CAAABBBCDAAD</t>
-  </si>
-  <si>
-    <t>BBDCBBBBAABB</t>
-  </si>
-  <si>
-    <t>CCACABDCCABD</t>
-  </si>
-  <si>
-    <t>CADBBABCAACD</t>
-  </si>
-  <si>
-    <t>ADBADDBDCBBC</t>
-  </si>
-  <si>
-    <t>BACCCCDCCCDD</t>
-  </si>
-  <si>
-    <t>ADCBBCADCCAC</t>
-  </si>
-  <si>
-    <t>BBBCACBDDCCC</t>
-  </si>
-  <si>
-    <t>BCAADCCCBCDC</t>
-  </si>
-  <si>
-    <t>ACCAABCCBACC</t>
-  </si>
-  <si>
-    <t>CACDBDAAADDC</t>
-  </si>
-  <si>
-    <t>BACACCDDBCAD</t>
-  </si>
-  <si>
-    <t>CAADABABBDBD</t>
-  </si>
-  <si>
-    <t>DADCBDADCABC</t>
-  </si>
-  <si>
-    <t>CBDBADAABABA</t>
-  </si>
-  <si>
-    <t>ADCCBABCDCDB</t>
+    <t>ECCCEBCCDDCA</t>
+  </si>
+  <si>
+    <t>DCDABBDBADDA</t>
+  </si>
+  <si>
+    <t>EBDEECCBCACD</t>
+  </si>
+  <si>
+    <t>DCBDBABAEEBA</t>
+  </si>
+  <si>
+    <t>EBCCAADDDBEC</t>
+  </si>
+  <si>
+    <t>AADDDEABDEEC</t>
+  </si>
+  <si>
+    <t>ECEEEDBEEDEB</t>
+  </si>
+  <si>
+    <t>DABBBCCDADDA</t>
+  </si>
+  <si>
+    <t>DCDABDCDCDEE</t>
+  </si>
+  <si>
+    <t>BECECBABDEBA</t>
+  </si>
+  <si>
+    <t>BDACCCCCDCEC</t>
+  </si>
+  <si>
+    <t>AACCBBEDEECE</t>
+  </si>
+  <si>
+    <t>DACACBADDDEB</t>
+  </si>
+  <si>
+    <t>DDBBCACABDDD</t>
+  </si>
+  <si>
+    <t>ABABCCBACCBE</t>
+  </si>
+  <si>
+    <t>ABEEEACBBDAE</t>
+  </si>
+  <si>
+    <t>EACDEAAECABE</t>
+  </si>
+  <si>
+    <t>BDEAEEABBCAB</t>
+  </si>
+  <si>
+    <t>CCDAABBCDABE</t>
+  </si>
+  <si>
+    <t>BADCDBBCCCBA</t>
+  </si>
+  <si>
+    <t>CAAEACDBBEDB</t>
+  </si>
+  <si>
+    <t>ECCBEDCBCAAB</t>
+  </si>
+  <si>
+    <t>EADBCAEBCDEE</t>
+  </si>
+  <si>
+    <t>CDEDACDCDCEB</t>
+  </si>
+  <si>
+    <t>ADBCCBECEEED</t>
+  </si>
+  <si>
+    <t>BBADBCACDCBD</t>
+  </si>
+  <si>
+    <t>BEDADBEDDACD</t>
+  </si>
+  <si>
+    <t>DCBBBACCCDEE</t>
+  </si>
+  <si>
+    <t>BDBBBEABAABE</t>
+  </si>
+  <si>
+    <t>ADABEDBEBEBB</t>
   </si>
 </sst>
 </file>
@@ -564,37 +564,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P2" t="s">
         <v>13</v>
@@ -614,34 +614,34 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="O3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P3" t="s">
         <v>14</v>
@@ -658,37 +658,37 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P4" t="s">
         <v>15</v>
@@ -702,40 +702,40 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
         <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" t="s">
-        <v>2</v>
       </c>
       <c r="P5" t="s">
         <v>16</v>
@@ -749,40 +749,40 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
       <c r="J6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L6" t="s">
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P6" t="s">
         <v>17</v>
@@ -796,40 +796,40 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
         <v>18</v>
@@ -843,13 +843,13 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -858,25 +858,25 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
         <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" t="s">
-        <v>7</v>
       </c>
       <c r="P8" t="s">
         <v>19</v>
@@ -890,40 +890,40 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P9" t="s">
         <v>20</v>
@@ -940,37 +940,37 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P10" t="s">
         <v>21</v>
@@ -984,40 +984,40 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P11" t="s">
         <v>22</v>
@@ -1031,40 +1031,40 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K12" t="s">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P12" t="s">
         <v>23</v>
@@ -1078,40 +1078,40 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>24</v>
@@ -1125,40 +1125,40 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P14" t="s">
         <v>25</v>
@@ -1172,37 +1172,37 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N15" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
         <v>4</v>
@@ -1219,40 +1219,40 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M16" t="s">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P16" t="s">
         <v>27</v>
@@ -1266,40 +1266,40 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P17" t="s">
         <v>28</v>
@@ -1313,10 +1313,10 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1325,28 +1325,28 @@
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M18" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O18" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P18" t="s">
         <v>29</v>
@@ -1360,40 +1360,40 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N19" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P19" t="s">
         <v>30</v>
@@ -1407,40 +1407,40 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N20" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P20" t="s">
         <v>31</v>
@@ -1454,40 +1454,40 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L21" t="s">
         <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O21" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P21" t="s">
         <v>32</v>
@@ -1501,37 +1501,37 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O22" t="s">
         <v>1</v>
@@ -1548,40 +1548,40 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P23" t="s">
         <v>34</v>
@@ -1595,19 +1595,19 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>7</v>
@@ -1616,19 +1616,19 @@
         <v>9</v>
       </c>
       <c r="K24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P24" t="s">
         <v>35</v>
@@ -1642,10 +1642,10 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
@@ -1654,28 +1654,28 @@
         <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
         <v>11</v>
       </c>
-      <c r="J25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>8</v>
-      </c>
       <c r="N25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O25" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P25" t="s">
         <v>36</v>
@@ -1689,40 +1689,40 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s">
         <v>11</v>
       </c>
-      <c r="E26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" t="s">
-        <v>4</v>
-      </c>
       <c r="J26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M26" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P26" t="s">
         <v>37</v>
@@ -1736,40 +1736,40 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N27" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O27" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P27" t="s">
         <v>38</v>
@@ -1783,40 +1783,40 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
       </c>
       <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" t="s">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
-        <v>4</v>
-      </c>
       <c r="O28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P28" t="s">
         <v>39</v>
@@ -1830,40 +1830,40 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K29" t="s">
         <v>9</v>
       </c>
       <c r="L29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
         <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P29" t="s">
         <v>40</v>
@@ -1877,40 +1877,40 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" t="s">
         <v>11</v>
       </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" t="s">
-        <v>1</v>
-      </c>
       <c r="N30" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P30" t="s">
         <v>41</v>
@@ -1924,40 +1924,40 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>7</v>
       </c>
       <c r="K31" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M31" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P31" t="s">
         <v>42</v>
